--- a/classification/droptc/sentence/drone-sbert/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/freeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9410049915313721</v>
+        <v>0.9998917579650879</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9880043864250183</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9884566068649292</v>
+        <v>0.999882698059082</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9872691631317139</v>
+        <v>0.9994770884513855</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9887825846672058</v>
+        <v>0.9998741149902344</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9885225296020508</v>
+        <v>0.9998859167098999</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9873155355453491</v>
+        <v>0.9999068975448608</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9414827823638916</v>
+        <v>0.9998856782913208</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9872691631317139</v>
+        <v>0.9999068975448608</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.851632297039032</v>
+        <v>0.999897837638855</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9860664010047913</v>
+        <v>0.9999151229858398</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9895937442779541</v>
+        <v>0.9997331500053406</v>
       </c>
     </row>
     <row r="14">
@@ -819,14 +819,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.716569721698761</v>
+        <v>0.9998984336853027</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9860133528709412</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9893026947975159</v>
+        <v>0.9998705387115479</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.999874472618103</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9887940287590027</v>
+        <v>0.9979402422904968</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9998950958251953</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9872599840164185</v>
+        <v>0.9999141693115234</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9885382652282715</v>
+        <v>0.9998838901519775</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9872556924819946</v>
+        <v>0.9998987913131714</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9897247552871704</v>
+        <v>0.9998931884765625</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9398072957992554</v>
+        <v>0.9998986721038818</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9884929060935974</v>
+        <v>0.9994766116142273</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8707146048545837</v>
+        <v>0.9949734210968018</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.989092230796814</v>
+        <v>0.9998946189880371</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9482755064964294</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9898622035980225</v>
+        <v>0.9998875856399536</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9890666007995605</v>
+        <v>0.9998742341995239</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8561263680458069</v>
+        <v>0.9998496770858765</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9887278079986572</v>
+        <v>0.9998880624771118</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9448838829994202</v>
+        <v>0.9997802376747131</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9447780847549438</v>
+        <v>0.9997459053993225</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9893282055854797</v>
+        <v>0.9996494054794312</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9894765615463257</v>
+        <v>0.9998836517333984</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9886100292205811</v>
+        <v>0.9996966123580933</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9367002844810486</v>
+        <v>0.999907374382019</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9444851279258728</v>
+        <v>0.9984949827194214</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.987951934337616</v>
+        <v>0.9997739195823669</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9872478246688843</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9898478388786316</v>
+        <v>0.7695823907852173</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9890361428260803</v>
+        <v>0.9997331500053406</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9884476065635681</v>
+        <v>0.9995707869529724</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9892394542694092</v>
+        <v>0.9998167157173157</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9774183630943298</v>
+        <v>0.9997501969337463</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9406896829605103</v>
+        <v>0.9455613493919373</v>
       </c>
     </row>
     <row r="48">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9888952970504761</v>
+        <v>0.9997192025184631</v>
       </c>
     </row>
     <row r="49">
@@ -1799,14 +1799,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8500942587852478</v>
+        <v>0.9999153614044189</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7319921851158142</v>
+        <v>0.9995922446250916</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9502584338188171</v>
+        <v>0.9993497729301453</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9873194694519043</v>
+        <v>0.9998481273651123</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9899409413337708</v>
+        <v>0.9995922446250916</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9873099327087402</v>
+        <v>0.9995951056480408</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9893085956573486</v>
+        <v>0.9998854398727417</v>
       </c>
     </row>
     <row r="56">
@@ -1995,14 +1995,14 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7446849346160889</v>
+        <v>0.9999097585678101</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9809165596961975</v>
+        <v>0.9999141693115234</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.98745197057724</v>
+        <v>0.9996676445007324</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8564561009407043</v>
+        <v>0.9999151229858398</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9410498738288879</v>
+        <v>0.9999046325683594</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.935223400592804</v>
+        <v>0.9999071359634399</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9880315065383911</v>
+        <v>0.9999030828475952</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9410498738288879</v>
+        <v>0.9995786547660828</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9873791337013245</v>
+        <v>0.997760534286499</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9891259670257568</v>
+        <v>0.9996590614318848</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9871374368667603</v>
+        <v>0.9996590614318848</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9481560587882996</v>
+        <v>0.9995847344398499</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9878194332122803</v>
+        <v>0.9996590614318848</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9897148013114929</v>
+        <v>0.9996681213378906</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9883971810340881</v>
+        <v>0.9998840093612671</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9883139133453369</v>
+        <v>0.9996125102043152</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9878958463668823</v>
+        <v>0.999804675579071</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9862082004547119</v>
+        <v>0.9997027516365051</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9872188568115234</v>
+        <v>0.9999004602432251</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9357790350914001</v>
+        <v>0.9998729228973389</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9884006977081299</v>
+        <v>0.9997027516365051</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9473048448562622</v>
+        <v>0.999848484992981</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9873262047767639</v>
+        <v>0.9997027516365051</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9879629611968994</v>
+        <v>0.9998944997787476</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9836784601211548</v>
+        <v>0.9996988773345947</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9837417602539062</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5154877901077271</v>
+        <v>0.9996988773345947</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5891684293746948</v>
+        <v>0.9998522996902466</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9880563020706177</v>
+        <v>0.9998522996902466</v>
       </c>
     </row>
     <row r="85">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5079426169395447</v>
+        <v>0.999916672706604</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9997170567512512</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9887806177139282</v>
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7493301033973694</v>
+        <v>0.9996955394744873</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9886104464530945</v>
+        <v>0.9998506307601929</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9887278079986572</v>
+        <v>0.9998980760574341</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9897463321685791</v>
+        <v>0.9998985528945923</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3903970718383789</v>
+        <v>0.9998984336853027</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9872833490371704</v>
+        <v>0.9998984336853027</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9873262047767639</v>
+        <v>0.9998981952667236</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9442679286003113</v>
+        <v>0.999897837638855</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9999135732650757</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9349031448364258</v>
+        <v>0.9981160163879395</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9457958936691284</v>
+        <v>0.9999130964279175</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9858698844909668</v>
+        <v>0.9997199177742004</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9873262047767639</v>
+        <v>0.9998857975006104</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9410049915313721</v>
+        <v>0.9998928308486938</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9894245862960815</v>
+        <v>0.9954747557640076</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9004194140434265</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9855297803878784</v>
+        <v>0.9998723268508911</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9879544973373413</v>
+        <v>0.9997050166130066</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8965083360671997</v>
+        <v>0.9998849630355835</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9424930214881897</v>
+        <v>0.9997451901435852</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9879968762397766</v>
+        <v>0.9995512366294861</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9898732900619507</v>
+        <v>0.9998968839645386</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9873610734939575</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9538216590881348</v>
+        <v>0.9997829794883728</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9427746534347534</v>
+        <v>0.9997231364250183</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.999744713306427</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9999040365219116</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.987903892993927</v>
+        <v>0.999737560749054</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9357790350914001</v>
+        <v>0.9998515844345093</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9872130751609802</v>
+        <v>0.9998716115951538</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9859783053398132</v>
+        <v>0.9946262240409851</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9896586537361145</v>
+        <v>0.7511885166168213</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9451706409454346</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9274007678031921</v>
+        <v>0.9996697902679443</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9315781593322754</v>
+        <v>0.9999129772186279</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9859035611152649</v>
+        <v>0.9996697902679443</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9891855716705322</v>
+        <v>0.9999129772186279</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9887638092041016</v>
+        <v>0.9996697902679443</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9859820604324341</v>
+        <v>0.9999129772186279</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7477903962135315</v>
+        <v>0.9955525994300842</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9410746693611145</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9008517265319824</v>
+        <v>0.9995218515396118</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9447780847549438</v>
+        <v>0.9967418313026428</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9887694120407104</v>
+        <v>0.9998742341995239</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9886447191238403</v>
+        <v>0.9978868365287781</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9881120920181274</v>
+        <v>0.9998717308044434</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9489564299583435</v>
+        <v>0.9999001026153564</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9889330863952637</v>
+        <v>0.9998849630355835</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9837154746055603</v>
+        <v>0.9998394250869751</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9892387390136719</v>
+        <v>0.9998732805252075</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9891435503959656</v>
+        <v>0.9998729228973389</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9881479144096375</v>
+        <v>0.9998742341995239</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9040613174438477</v>
+        <v>0.9998543262481689</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9469242691993713</v>
+        <v>0.9583548903465271</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9897072315216064</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9872888326644897</v>
+        <v>0.9996567964553833</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9887794256210327</v>
+        <v>0.9999029636383057</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9897947907447815</v>
+        <v>0.9996567964553833</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9444851279258728</v>
+        <v>0.999849796295166</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9447780847549438</v>
+        <v>0.9996681213378906</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9998922348022461</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9871870279312134</v>
+        <v>0.999690055847168</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9465703964233398</v>
+        <v>0.9994132518768311</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9888142943382263</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9461823105812073</v>
+        <v>0.9972255825996399</v>
       </c>
     </row>
     <row r="153">
@@ -4711,14 +4711,14 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9480885863304138</v>
+        <v>0.9999105930328369</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9885177612304688</v>
+        <v>0.9995749592781067</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9008517265319824</v>
+        <v>0.9999014139175415</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9893301129341125</v>
+        <v>0.9995712637901306</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9355641603469849</v>
+        <v>0.999904990196228</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.941834568977356</v>
+        <v>0.9995735287666321</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9424930214881897</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9892522692680359</v>
+        <v>0.999698281288147</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9871383309364319</v>
+        <v>0.999895453453064</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5977921485900879</v>
+        <v>0.940552830696106</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9223958253860474</v>
+        <v>0.9998735189437866</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.9996559619903564</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9504713416099548</v>
+        <v>0.9999133348464966</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5750530362129211</v>
+        <v>0.9995700716972351</v>
       </c>
     </row>
     <row r="167">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9500224590301514</v>
+        <v>0.9996796846389771</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5545669198036194</v>
+        <v>0.9997360110282898</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9004194140434265</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9879899621009827</v>
+        <v>0.9996796846389771</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.88873291015625</v>
+        <v>0.9997239708900452</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9892528653144836</v>
+        <v>0.999850869178772</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.985970675945282</v>
+        <v>0.9998741149902344</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9886825084686279</v>
+        <v>0.9998737573623657</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9872567653656006</v>
+        <v>0.9998741149902344</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9410498738288879</v>
+        <v>0.9998741149902344</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8638563752174377</v>
+        <v>0.9998737573623657</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8493924140930176</v>
+        <v>0.9998946189880371</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9897622466087341</v>
+        <v>0.9998058676719666</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9896586537361145</v>
+        <v>0.999874472618103</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4297910332679749</v>
+        <v>0.999895453453064</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9878872632980347</v>
+        <v>0.9998852014541626</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9888922572135925</v>
+        <v>0.9996861219406128</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9043107628822327</v>
+        <v>0.999904990196228</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9511052966117859</v>
+        <v>0.9999037981033325</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9886638522148132</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9860664010047913</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9895395636558533</v>
+        <v>0.9998930692672729</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.8945690989494324</v>
+        <v>0.9998973608016968</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9004194140434265</v>
+        <v>0.9998979568481445</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9891642928123474</v>
+        <v>0.9982840418815613</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9474611878395081</v>
+        <v>0.9998866319656372</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9860884547233582</v>
+        <v>0.9998762607574463</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8562843203544617</v>
+        <v>0.9996224641799927</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9879910349845886</v>
+        <v>0.9997879862785339</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.528384804725647</v>
+        <v>0.9999064207077026</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9884365797042847</v>
+        <v>0.9999066591262817</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9893085956573486</v>
+        <v>0.9999085664749146</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9885672330856323</v>
+        <v>0.9998925924301147</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9884443879127502</v>
+        <v>0.9993293285369873</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.940971314907074</v>
+        <v>0.9998929500579834</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9872335195541382</v>
+        <v>0.9998970031738281</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9457828998565674</v>
+        <v>0.9998728036880493</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9887769818305969</v>
+        <v>0.9996668100357056</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9443934559822083</v>
+        <v>0.9999115467071533</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9884297847747803</v>
+        <v>0.9998723268508911</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8236426115036011</v>
+        <v>0.9983493089675903</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9860259890556335</v>
+        <v>0.999806821346283</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9892902970314026</v>
+        <v>0.9938738346099854</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8541572093963623</v>
+        <v>0.9998724460601807</v>
       </c>
     </row>
   </sheetData>
